--- a/studygo/day04/程序生成的/testsuite-deep.xlsx
+++ b/studygo/day04/程序生成的/testsuite-deep.xlsx
@@ -349,20 +349,16 @@
       <c r="A2" t="str">
         <v>送礼面板</v>
       </c>
-      <c r="B2" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C2" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B2" t="str"/>
+      <c r="C2" t="str"/>
       <c r="D2" t="str">
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>&lt;p&gt;房主在语音房内，查看送礼面板&lt;/p&gt;</v>
+        <v>房主在语音房内，查看送礼面板</v>
       </c>
       <c r="F2" t="str">
-        <v>&lt;p&gt;礼物面板不显示自己&lt;/p&gt;</v>
+        <v>礼物面板不显示自己</v>
       </c>
     </row>
     <row r="3">
@@ -370,11 +366,11 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>&lt;p&gt;其他用户查看送礼面板&lt;/p&gt;</v>
+        <v>其他用户查看送礼面板</v>
       </c>
       <c r="F3" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.默认房主始终在送礼面板上，且置于第一的位置
-&lt;br&gt;2.选择礼物给房主送礼，可以赠送成功&lt;/p&gt;</v>
+        <v>1.默认房主始终在送礼面板上，且置于第一的位置
+2.选择礼物给房主送礼，可以赠送成功</v>
       </c>
     </row>
     <row r="4">
@@ -382,11 +378,11 @@
         <v>3</v>
       </c>
       <c r="E4" t="str">
-        <v>&lt;p&gt;房主离开语音房，其他用户查看送礼面板&lt;/p&gt;</v>
+        <v>房主离开语音房，其他用户查看送礼面板</v>
       </c>
       <c r="F4" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.默认房主始终在送礼面板上，且置于第一的位置
-&lt;br&gt;2.选择礼物给房主送礼，可以赠送成功&lt;/p&gt;</v>
+        <v>1.默认房主始终在送礼面板上，且置于第一的位置
+2.选择礼物给房主送礼，可以赠送成功</v>
       </c>
     </row>
     <row r="5"/>
@@ -394,20 +390,18 @@
       <c r="A6" t="str">
         <v>送礼座位动画</v>
       </c>
-      <c r="B6" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B6" t="str"/>
       <c r="C6" t="str">
-        <v>&lt;p&gt;用户A、用户B上麦&lt;/p&gt;</v>
+        <v>用户A、用户B上麦</v>
       </c>
       <c r="D6" t="str">
         <v>1</v>
       </c>
       <c r="E6" t="str">
-        <v>&lt;p&gt;用户A送礼物1给用户B&lt;/p&gt;</v>
+        <v>用户A送礼物1给用户B</v>
       </c>
       <c r="F6" t="str">
-        <v>&lt;p&gt;显示送礼座位动画（礼物1从座位A飘至座位B的路径）&lt;/p&gt;</v>
+        <v>显示送礼座位动画（礼物1从座位A飘至座位B的路径）</v>
       </c>
     </row>
     <row r="7">
@@ -415,10 +409,10 @@
         <v>2</v>
       </c>
       <c r="E7" t="str">
-        <v>&lt;p&gt;用户A送礼物2给用户B&lt;/p&gt;</v>
+        <v>用户A送礼物2给用户B</v>
       </c>
       <c r="F7" t="str">
-        <v>&lt;p&gt;显示送礼座位动画（礼物2从座位A飘至座位B的路径）&lt;/p&gt;</v>
+        <v>显示送礼座位动画（礼物2从座位A飘至座位B的路径）</v>
       </c>
     </row>
     <row r="8">
@@ -426,13 +420,13 @@
         <v>3</v>
       </c>
       <c r="E8" t="str">
-        <v>&lt;p&gt;
-	用户A下麦，送礼物3给用户B&lt;/p&gt;
+        <v>
+	用户A下麦，送礼物3给用户B
 </v>
       </c>
       <c r="F8" t="str">
-        <v>&lt;p&gt;
-	显示送礼座位动画（礼物3从屏幕下方飘至座位B的路径）&lt;/p&gt;
+        <v>
+	显示送礼座位动画（礼物3从屏幕下方飘至座位B的路径）
 </v>
       </c>
     </row>
@@ -441,13 +435,13 @@
         <v>4</v>
       </c>
       <c r="E9" t="str">
-        <v>&lt;p&gt;
-	用户A是房主，送礼物4给用户B&lt;/p&gt;
+        <v>
+	用户A是房主，送礼物4给用户B
 </v>
       </c>
       <c r="F9" t="str">
-        <v>&lt;p&gt;
-	显示送礼座位动画（礼物4从房主座位飘至座位B的路径）&lt;/p&gt;
+        <v>
+	显示送礼座位动画（礼物4从房主座位飘至座位B的路径）
 </v>
       </c>
     </row>
@@ -456,10 +450,10 @@
         <v>5</v>
       </c>
       <c r="E10" t="str">
-        <v>&lt;p&gt;用户B送礼物5给在线房主&lt;/p&gt;</v>
+        <v>用户B送礼物5给在线房主</v>
       </c>
       <c r="F10" t="str">
-        <v>&lt;p&gt;显示送礼座位动画（礼物5从座位B飘至房主位置的路径）&lt;/p&gt;</v>
+        <v>显示送礼座位动画（礼物5从座位B飘至房主位置的路径）</v>
       </c>
     </row>
     <row r="11">
@@ -467,10 +461,10 @@
         <v>6</v>
       </c>
       <c r="E11" t="str">
-        <v>&lt;p&gt;房主离开房间，用户B送礼物给房主&lt;/p&gt;</v>
+        <v>房主离开房间，用户B送礼物给房主</v>
       </c>
       <c r="F11" t="str">
-        <v>&lt;p&gt;显示送礼座位动画（礼物5从座位B飘至房主位置的路径）&lt;/p&gt;</v>
+        <v>显示送礼座位动画（礼物5从座位B飘至房主位置的路径）</v>
       </c>
     </row>
     <row r="12"/>
@@ -478,23 +472,19 @@
       <c r="A13" t="str">
         <v>送全麦动画</v>
       </c>
-      <c r="B13" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C13" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B13" t="str"/>
+      <c r="C13" t="str"/>
       <c r="D13" t="str">
         <v>1</v>
       </c>
       <c r="E13" t="str">
-        <v>&lt;p&gt;
-	房主在房间内，麦上人数为N（N&amp;gt;3），麦下用户送单个礼物，送全麦&lt;/p&gt;
+        <v>
+	房主在房间内，麦上人数为N（N3），麦下用户送单个礼物，送全麦
 </v>
       </c>
       <c r="F13" t="str">
-        <v>&lt;p&gt;
-	显示送礼座位动画（礼物从屏幕下方飘至各个用户座位上）&lt;/p&gt;
+        <v>
+	显示送礼座位动画（礼物从屏幕下方飘至各个用户座位上）
 </v>
       </c>
     </row>
@@ -503,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="E14" t="str">
-        <v>&lt;p&gt;
-	房主在房间内，麦上人数为N（N&amp;gt;3），麦下用户送一组M个礼物，送全麦&lt;/p&gt;
+        <v>
+	房主在房间内，麦上人数为N（N3），麦下用户送一组M个礼物，送全麦
 </v>
       </c>
       <c r="F14" t="str">
-        <v>&lt;p&gt;
-	显示送礼座位动画（礼物从屏幕下方飘至各个用户座位上）&lt;/p&gt;
+        <v>
+	显示送礼座位动画（礼物从屏幕下方飘至各个用户座位上）
 </v>
       </c>
     </row>
@@ -518,10 +508,10 @@
         <v>3</v>
       </c>
       <c r="E15" t="str">
-        <v>&lt;p&gt;房主在房间内，麦上人数为N（N&gt;3），麦上用户送单个礼物，送全麦&lt;/p&gt;</v>
+        <v>房主在房间内，麦上人数为N（N&gt;3），麦上用户送单个礼物，送全麦</v>
       </c>
       <c r="F15" t="str">
-        <v>&lt;p&gt;显示送礼座位动画（礼物从送礼用户座位飘至各个用户座位上）&lt;/p&gt;</v>
+        <v>显示送礼座位动画（礼物从送礼用户座位飘至各个用户座位上）</v>
       </c>
     </row>
     <row r="16">
@@ -529,10 +519,10 @@
         <v>4</v>
       </c>
       <c r="E16" t="str">
-        <v>&lt;p&gt;房主在房间内，麦上人数为N（N&gt;3），麦上用户送一组M个礼物，送全麦&lt;/p&gt;</v>
+        <v>房主在房间内，麦上人数为N（N&gt;3），麦上用户送一组M个礼物，送全麦</v>
       </c>
       <c r="F16" t="str">
-        <v>&lt;p&gt;显示送礼座位动画（礼物从送礼用户座位飘至各个用户座位上）&lt;/p&gt;</v>
+        <v>显示送礼座位动画（礼物从送礼用户座位飘至各个用户座位上）</v>
       </c>
     </row>
   </sheetData>
@@ -570,21 +560,19 @@
       <c r="A2" t="str">
         <v>送礼-赠送礼物全麦</v>
       </c>
-      <c r="B2" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B2" t="str"/>
       <c r="C2" t="str">
-        <v>&lt;p&gt;金币充足&lt;/p&gt;</v>
+        <v>金币充足</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>&lt;p&gt;用户点击礼物按钮&lt;/p&gt;</v>
+        <v>用户点击礼物按钮</v>
       </c>
       <c r="F2" t="str">
-        <v>&lt;p&gt;拉起礼物栏，默认打开选中送全麦按钮
-全麦按钮旁所有用户头像显示选中状态&lt;/p&gt;</v>
+        <v>拉起礼物栏，默认打开选中送全麦按钮
+全麦按钮旁所有用户头像显示选中状态</v>
       </c>
     </row>
     <row r="3">
@@ -592,10 +580,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>&lt;p&gt;选择礼物，点击赠送&lt;/p&gt;</v>
+        <v>选择礼物，点击赠送</v>
       </c>
       <c r="F3" t="str">
-        <v>&lt;p&gt;礼物赠送成功，钻石扣除对应数量&lt;/p&gt;</v>
+        <v>礼物赠送成功，钻石扣除对应数量</v>
       </c>
     </row>
     <row r="4"/>
@@ -603,21 +591,17 @@
       <c r="A5" t="str">
         <v>送礼-赠送礼物非全麦</v>
       </c>
-      <c r="B5" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C5" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B5" t="str"/>
+      <c r="C5" t="str"/>
       <c r="D5" t="str">
         <v>1</v>
       </c>
       <c r="E5" t="str">
-        <v>&lt;p&gt;用户点击礼物按钮，关闭送全麦按钮&lt;/p&gt;</v>
+        <v>用户点击礼物按钮，关闭送全麦按钮</v>
       </c>
       <c r="F5" t="str">
-        <v>&lt;p&gt;状态切换成功，送全麦按钮显示关闭状态
-按钮旁边所有用户头像显示置灰状态&lt;/p&gt;</v>
+        <v>状态切换成功，送全麦按钮显示关闭状态
+按钮旁边所有用户头像显示置灰状态</v>
       </c>
     </row>
     <row r="6">
@@ -625,11 +609,11 @@
         <v>2</v>
       </c>
       <c r="E6" t="str">
-        <v>&lt;p&gt;点击任一用户头像&lt;/p&gt;</v>
+        <v>点击任一用户头像</v>
       </c>
       <c r="F6" t="str">
-        <v>&lt;p&gt;被点击的用户头像显示选中状态
-其余的头像显示置灰状态&lt;/p&gt;</v>
+        <v>被点击的用户头像显示选中状态
+其余的头像显示置灰状态</v>
       </c>
     </row>
     <row r="7">
@@ -637,11 +621,11 @@
         <v>3</v>
       </c>
       <c r="E7" t="str">
-        <v>&lt;p&gt;切换其他用户头像&lt;/p&gt;</v>
+        <v>切换其他用户头像</v>
       </c>
       <c r="F7" t="str">
-        <v>&lt;p&gt;切换显示其他用户头像为选中状态
-只显示一个用户被选中&lt;/p&gt;</v>
+        <v>切换显示其他用户头像为选中状态
+只显示一个用户被选中</v>
       </c>
     </row>
     <row r="8">
@@ -649,10 +633,10 @@
         <v>4</v>
       </c>
       <c r="E8" t="str">
-        <v>&lt;p&gt;选择礼物，点击赠送&lt;/p&gt;</v>
+        <v>选择礼物，点击赠送</v>
       </c>
       <c r="F8" t="str">
-        <v>&lt;p&gt;礼物赠送成功，钻石扣除对应数量&lt;/p&gt;</v>
+        <v>礼物赠送成功，钻石扣除对应数量</v>
       </c>
     </row>
     <row r="9"/>
@@ -660,20 +644,16 @@
       <c r="A10" t="str">
         <v>送礼-全麦下取消头像</v>
       </c>
-      <c r="B10" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C10" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B10" t="str"/>
+      <c r="C10" t="str"/>
       <c r="D10" t="str">
         <v>1</v>
       </c>
       <c r="E10" t="str">
-        <v>&lt;p&gt;用户点击礼物拉起礼物栏，全麦下点击ABC用户头像&lt;/p&gt;</v>
+        <v>用户点击礼物拉起礼物栏，全麦下点击ABC用户头像</v>
       </c>
       <c r="F10" t="str">
-        <v>&lt;p&gt;头像显示置灰未被选中状态&lt;/p&gt;</v>
+        <v>头像显示置灰未被选中状态</v>
       </c>
     </row>
     <row r="11">
@@ -681,10 +661,10 @@
         <v>2</v>
       </c>
       <c r="E11" t="str">
-        <v>&lt;p&gt;选择礼物，点击赠送&lt;/p&gt;</v>
+        <v>选择礼物，点击赠送</v>
       </c>
       <c r="F11" t="str">
-        <v>&lt;p&gt;ABC用户接收不到赠送的礼物，其他用户可正常接收，钻石数量扣除正确&lt;/p&gt;</v>
+        <v>ABC用户接收不到赠送的礼物，其他用户可正常接收，钻石数量扣除正确</v>
       </c>
     </row>
     <row r="12"/>
@@ -692,23 +672,19 @@
       <c r="A13" t="str">
         <v>送礼-点击座位席用户头像送礼</v>
       </c>
-      <c r="B13" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C13" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B13" t="str"/>
+      <c r="C13" t="str"/>
       <c r="D13" t="str">
         <v>1</v>
       </c>
       <c r="E13" t="str">
-        <v>&lt;p&gt;
-	点击座位席中的房主或普通用户A头像，点击送礼&lt;/p&gt;
+        <v>
+	点击座位席中的房主或普通用户A头像，点击送礼
 </v>
       </c>
       <c r="F13" t="str">
-        <v>&lt;p&gt;
-	&lt;span style="font-family: &amp;quot;Arial&amp;quot;; font-size: 13px; font-style: normal; font-weight: normal; text-decoration: none;"&gt;送礼栏显示选中A，其余用户显示未选中状态 送全麦按钮显示关闭状态&lt;/span&gt;&lt;/p&gt;
+        <v>
+	送礼栏显示选中A，其余用户显示未选中状态 送全麦按钮显示关闭状态
 </v>
       </c>
     </row>
@@ -717,13 +693,13 @@
         <v>2</v>
       </c>
       <c r="E14" t="str">
-        <v>&lt;p&gt;
-	选择礼物，点击送礼&lt;/p&gt;
+        <v>
+	选择礼物，点击送礼
 </v>
       </c>
       <c r="F14" t="str">
-        <v>&lt;p&gt;
-	&lt;span style="font-family: &amp;quot;Arial&amp;quot;; font-size: 13px; font-style: normal; font-weight: normal; text-decoration: none;"&gt;礼物赠送成功，钻石扣除对应数量 A接收到赠送礼物&lt;/span&gt;&lt;/p&gt;
+        <v>
+	礼物赠送成功，钻石扣除对应数量 A接收到赠送礼物
 </v>
       </c>
     </row>
@@ -732,21 +708,17 @@
       <c r="A16" t="str">
         <v>送礼-赠送礼物时余额不足</v>
       </c>
-      <c r="B16" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C16" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B16" t="str"/>
+      <c r="C16" t="str"/>
       <c r="D16" t="str">
         <v>1</v>
       </c>
       <c r="E16" t="str">
-        <v>&lt;p&gt;赠送礼物时候余额不足，点击赠送&lt;/p&gt;</v>
+        <v>赠送礼物时候余额不足，点击赠送</v>
       </c>
       <c r="F16" t="str">
-        <v>&lt;p&gt;弹出余额不足引导充值弹窗，提示余额不足需要充值
-有取消与确定选项&lt;/p&gt;</v>
+        <v>弹出余额不足引导充值弹窗，提示余额不足需要充值
+有取消与确定选项</v>
       </c>
     </row>
     <row r="17">
@@ -754,10 +726,10 @@
         <v>2</v>
       </c>
       <c r="E17" t="str">
-        <v>&lt;p&gt;点击取消&lt;/p&gt;</v>
+        <v>点击取消</v>
       </c>
       <c r="F17" t="str">
-        <v>&lt;p&gt;弹框消失，礼物赠送失败&lt;/p&gt;</v>
+        <v>弹框消失，礼物赠送失败</v>
       </c>
     </row>
     <row r="18">
@@ -765,10 +737,10 @@
         <v>3</v>
       </c>
       <c r="E18" t="str">
-        <v>&lt;p&gt;点击确定&lt;/p&gt;</v>
+        <v>点击确定</v>
       </c>
       <c r="F18" t="str">
-        <v>&lt;p&gt;弹框消失，跳转到的充值界面&lt;/p&gt;</v>
+        <v>弹框消失，跳转到的充值界面</v>
       </c>
     </row>
     <row r="19"/>
@@ -776,23 +748,19 @@
       <c r="A20" t="str">
         <v>送礼-充值</v>
       </c>
-      <c r="B20" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C20" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B20" t="str"/>
+      <c r="C20" t="str"/>
       <c r="D20" t="str">
         <v>1</v>
       </c>
       <c r="E20" t="str">
-        <v>&lt;p&gt;
-	点击礼物面板中的充值按钮&lt;/p&gt;
+        <v>
+	点击礼物面板中的充值按钮
 </v>
       </c>
       <c r="F20" t="str">
-        <v>&lt;p&gt;
-	跳转到的充值界面 默认选中微信充值点击充值档位自动唤起支付&lt;span style="color:#ffffff;"&gt;第一位档位1000&lt;/span&gt;&lt;/p&gt;
+        <v>
+	跳转到的充值界面 默认选中微信充值点击充值档位自动唤起支付第一位档位1000
 </v>
       </c>
     </row>
@@ -801,20 +769,16 @@
       <c r="A22" t="str">
         <v>送礼-礼物连击</v>
       </c>
-      <c r="B22" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C22" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B22" t="str"/>
+      <c r="C22" t="str"/>
       <c r="D22" t="str">
         <v>1</v>
       </c>
       <c r="E22" t="str">
-        <v>&lt;p&gt;礼物赠送成功后&lt;/p&gt;</v>
+        <v>礼物赠送成功后</v>
       </c>
       <c r="F22" t="str">
-        <v>&lt;p&gt;右下角显示倒计时，时长共5S,倒计时按钮上数字从30倒计至0后&lt;/p&gt;</v>
+        <v>右下角显示倒计时，时长共5S,倒计时按钮上数字从30倒计至0后</v>
       </c>
     </row>
     <row r="23">
@@ -822,10 +786,10 @@
         <v>2</v>
       </c>
       <c r="E23" t="str">
-        <v>&lt;p&gt;继步骤&lt;br&gt;1，倒计时未结束时&lt;/p&gt;</v>
+        <v>继步骤1，倒计时未结束时</v>
       </c>
       <c r="F23" t="str">
-        <v>&lt;p&gt;点击按钮可成功连击，礼物赠送数量会叠加&lt;/p&gt;</v>
+        <v>点击按钮可成功连击，礼物赠送数量会叠加</v>
       </c>
     </row>
     <row r="24">
@@ -833,10 +797,10 @@
         <v>3</v>
       </c>
       <c r="E24" t="str">
-        <v>&lt;p&gt;继步骤&lt;br&gt;1，倒计时结束&lt;/p&gt;</v>
+        <v>继步骤1，倒计时结束</v>
       </c>
       <c r="F24" t="str">
-        <v>&lt;p&gt;倒计时按钮消失&lt;/p&gt;</v>
+        <v>倒计时按钮消失</v>
       </c>
     </row>
     <row r="25"/>
@@ -844,21 +808,17 @@
       <c r="A26" t="str">
         <v>送礼-赠送大礼物</v>
       </c>
-      <c r="B26" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C26" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B26" t="str"/>
+      <c r="C26" t="str"/>
       <c r="D26" t="str">
         <v>1</v>
       </c>
       <c r="E26" t="str">
-        <v>&lt;p&gt;A用户赠送B大礼物a，赠送成功&lt;/p&gt;</v>
+        <v>A用户赠送B大礼物a，赠送成功</v>
       </c>
       <c r="F26" t="str">
-        <v>&lt;p&gt;大礼物特效显示在屏幕层级最顶级
-大礼物特效上显示流光&lt;/p&gt;</v>
+        <v>大礼物特效显示在屏幕层级最顶级
+大礼物特效上显示流光</v>
       </c>
     </row>
     <row r="27">
@@ -866,13 +826,13 @@
         <v>2</v>
       </c>
       <c r="E27" t="str">
-        <v>&lt;p&gt;
-	查看大礼物流光文案&lt;/p&gt;
+        <v>
+	查看大礼物流光文案
 </v>
       </c>
       <c r="F27" t="str">
-        <v>&lt;p&gt;
-	显示：A用户昵称+&amp;quot;送&amp;quot;+B用户昵称+大礼物图标*数量 显示完成后消失&lt;/p&gt;
+        <v>
+	显示：A用户昵称+送+B用户昵称+大礼物图标*数量 显示完成后消失
 </v>
       </c>
     </row>
@@ -881,21 +841,17 @@
       <c r="A29" t="str">
         <v>送礼-全服广播</v>
       </c>
-      <c r="B29" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C29" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B29" t="str"/>
+      <c r="C29" t="str"/>
       <c r="D29" t="str">
         <v>1</v>
       </c>
       <c r="E29" t="str">
-        <v>&lt;p&gt;用户单次赠送礼物到达200金额&lt;/p&gt;</v>
+        <v>用户单次赠送礼物到达200金额</v>
       </c>
       <c r="F29" t="str">
-        <v>&lt;p&gt;触发全服广播，从左到右进场
-当前房间与其他房间都可以查看该广播&lt;/p&gt;</v>
+        <v>触发全服广播，从左到右进场
+当前房间与其他房间都可以查看该广播</v>
       </c>
     </row>
     <row r="30">
@@ -903,10 +859,10 @@
         <v>2</v>
       </c>
       <c r="E30" t="str">
-        <v>&lt;p&gt;其他房间点击全服广播&lt;/p&gt;</v>
+        <v>其他房间点击全服广播</v>
       </c>
       <c r="F30" t="str">
-        <v>&lt;p&gt;可跳转至触发全服广播房间&lt;/p&gt;</v>
+        <v>可跳转至触发全服广播房间</v>
       </c>
     </row>
     <row r="31">
@@ -914,10 +870,10 @@
         <v>3</v>
       </c>
       <c r="E31" t="str">
-        <v>&lt;p&gt;当前房间内查看全服广播&lt;/p&gt;</v>
+        <v>当前房间内查看全服广播</v>
       </c>
       <c r="F31" t="str">
-        <v>&lt;p&gt;无跳转&lt;/p&gt;</v>
+        <v>无跳转</v>
       </c>
     </row>
     <row r="32">
@@ -925,10 +881,10 @@
         <v>4</v>
       </c>
       <c r="E32" t="str">
-        <v>&lt;p&gt;继步骤&lt;br&gt;1，广播显示停留X秒后&lt;/p&gt;</v>
+        <v>继步骤1，广播显示停留X秒后</v>
       </c>
       <c r="F32" t="str">
-        <v>&lt;p&gt;广播消失&lt;/p&gt;</v>
+        <v>广播消失</v>
       </c>
     </row>
     <row r="33"/>
@@ -936,23 +892,19 @@
       <c r="A34" t="str">
         <v>语音房-用户首次进入语音房</v>
       </c>
-      <c r="B34" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C34" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B34" t="str"/>
+      <c r="C34" t="str"/>
       <c r="D34" t="str">
         <v>1</v>
       </c>
       <c r="E34" t="str">
-        <v>&lt;p&gt;
-	用户首次创建进入语音房间&lt;/p&gt;
+        <v>
+	用户首次创建进入语音房间
 </v>
       </c>
       <c r="F34" t="str">
-        <v>&lt;p&gt;
-	弹出授权录音权限 文案：&amp;quot;追读小说&amp;quot;需要你的录音权限 下方显示：取消和确定选项（ios下方显示不允许和好）&lt;/p&gt;
+        <v>
+	弹出授权录音权限 文案：追读小说需要你的录音权限 下方显示：取消和确定选项（ios下方显示不允许和好）
 </v>
       </c>
     </row>
@@ -961,14 +913,14 @@
         <v>2</v>
       </c>
       <c r="E35" t="str">
-        <v>&lt;p&gt;
-	继步骤&lt;br /&gt;
-	1，点击取消&lt;/p&gt;
+        <v>
+	继步骤
+	1，点击取消
 </v>
       </c>
       <c r="F35" t="str">
-        <v>&lt;p&gt;
-	授权失败，toast提示&amp;ldquo;授权失败&amp;rdquo;，房间未创建成功，未进入（ios弹出提示&amp;ldquo;请到系统设置授权麦克风权限&amp;rdquo;）&lt;/p&gt;
+        <v>
+	授权失败，toast提示授权失败，房间未创建成功，未进入（ios弹出提示请到系统设置授权麦克风权限）
 </v>
       </c>
     </row>
@@ -977,14 +929,14 @@
         <v>3</v>
       </c>
       <c r="E36" t="str">
-        <v>&lt;p&gt;
-	继步骤&lt;br /&gt;
-	1，点击确定&lt;/p&gt;
+        <v>
+	继步骤
+	1，点击确定
 </v>
       </c>
       <c r="F36" t="str">
-        <v>&lt;p&gt;
-	授权成功，Toast提示&amp;ldquo;授权成功&amp;rdquo;，创建房间成功，可进入，房间旁喇叭显示开音状态（ios创建房间成功，进入房间页面）&lt;/p&gt;
+        <v>
+	授权成功，Toast提示授权成功，创建房间成功，可进入，房间旁喇叭显示开音状态（ios创建房间成功，进入房间页面）
 </v>
       </c>
     </row>
@@ -993,20 +945,16 @@
       <c r="A38" t="str">
         <v>语音房-未登录用户</v>
       </c>
-      <c r="B38" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C38" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B38" t="str"/>
+      <c r="C38" t="str"/>
       <c r="D38" t="str">
         <v>1</v>
       </c>
       <c r="E38" t="str">
-        <v>&lt;p&gt;未登录游客用户点击座位&lt;/p&gt;</v>
+        <v>未登录游客用户点击座位</v>
       </c>
       <c r="F38" t="str">
-        <v>&lt;p&gt;弹出登录提示&lt;/p&gt;</v>
+        <v>弹出登录提示</v>
       </c>
     </row>
     <row r="39">
@@ -1014,10 +962,10 @@
         <v>2</v>
       </c>
       <c r="E39" t="str">
-        <v>&lt;p&gt;未登录游客用户点击发言&lt;/p&gt;</v>
+        <v>未登录游客用户点击发言</v>
       </c>
       <c r="F39" t="str">
-        <v>&lt;p&gt;弹出登录提示&lt;/p&gt;</v>
+        <v>弹出登录提示</v>
       </c>
     </row>
     <row r="40">
@@ -1025,10 +973,10 @@
         <v>3</v>
       </c>
       <c r="E40" t="str">
-        <v>&lt;p&gt;未登录游客用户点击送礼&lt;/p&gt;</v>
+        <v>未登录游客用户点击送礼</v>
       </c>
       <c r="F40" t="str">
-        <v>&lt;p&gt;弹出登录提示&lt;/p&gt;</v>
+        <v>弹出登录提示</v>
       </c>
     </row>
     <row r="41">
@@ -1036,10 +984,10 @@
         <v>4</v>
       </c>
       <c r="E41" t="str">
-        <v>&lt;p&gt;继步骤12&lt;br&gt;3，取消登录&lt;/p&gt;</v>
+        <v>继步骤123，取消登录</v>
       </c>
       <c r="F41" t="str">
-        <v>&lt;p&gt;再次点击提示登录&lt;/p&gt;</v>
+        <v>再次点击提示登录</v>
       </c>
     </row>
     <row r="42">
@@ -1047,10 +995,10 @@
         <v>5</v>
       </c>
       <c r="E42" t="str">
-        <v>&lt;p&gt;继步骤12&lt;br&gt;3，登录成功&lt;/p&gt;</v>
+        <v>继步骤123，登录成功</v>
       </c>
       <c r="F42" t="str">
-        <v>&lt;p&gt;再次点击操作不提示登录&lt;/p&gt;</v>
+        <v>再次点击操作不提示登录</v>
       </c>
     </row>
     <row r="43"/>
@@ -1058,22 +1006,20 @@
       <c r="A44" t="str">
         <v>语音房-发言未绑定手机</v>
       </c>
-      <c r="B44" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B44" t="str"/>
       <c r="C44" t="str">
-        <v>&lt;p&gt;已授权&lt;/p&gt;</v>
+        <v>已授权</v>
       </c>
       <c r="D44" t="str">
         <v>1</v>
       </c>
       <c r="E44" t="str">
-        <v>&lt;p&gt;用户登录后未绑定手机号，进入别人房间，开启公屏聊天前&lt;/p&gt;</v>
+        <v>用户登录后未绑定手机号，进入别人房间，开启公屏聊天前</v>
       </c>
       <c r="F44" t="str">
-        <v>&lt;p&gt;提示需绑定手机
+        <v>提示需绑定手机
 文案：开启公屏聊天需要绑定手机，现在绑定
-底部显示：取消和马上绑定&lt;/p&gt;</v>
+底部显示：取消和马上绑定</v>
       </c>
     </row>
     <row r="45">
@@ -1081,12 +1027,12 @@
         <v>2</v>
       </c>
       <c r="E45" t="str">
-        <v>&lt;p&gt;用户登录后未绑定手机号，进入别人房间点击上麦，点击开启发言(别人抱用户上麦)&lt;/p&gt;</v>
+        <v>用户登录后未绑定手机号，进入别人房间点击上麦，点击开启发言(别人抱用户上麦)</v>
       </c>
       <c r="F45" t="str">
-        <v>&lt;p&gt;提示需绑定手机
+        <v>提示需绑定手机
 文案：开启上座发言需要绑定手机（开启公屏聊天需要绑定手机，现在绑定
-底部显示：取消和马上绑定）&lt;/p&gt;</v>
+底部显示：取消和马上绑定）</v>
       </c>
     </row>
     <row r="46">
@@ -1094,10 +1040,10 @@
         <v>2</v>
       </c>
       <c r="E46" t="str">
-        <v>&lt;p&gt;继步骤&lt;br&gt;1，2点击取消&lt;/p&gt;</v>
+        <v>继步骤1，2点击取消</v>
       </c>
       <c r="F46" t="str">
-        <v>&lt;p&gt;发送聊天失败&lt;/p&gt;</v>
+        <v>发送聊天失败</v>
       </c>
     </row>
     <row r="47">
@@ -1105,10 +1051,10 @@
         <v>3</v>
       </c>
       <c r="E47" t="str">
-        <v>&lt;p&gt;继步骤&lt;br&gt;1，2点击马上绑定&lt;/p&gt;</v>
+        <v>继步骤1，2点击马上绑定</v>
       </c>
       <c r="F47" t="str">
-        <v>&lt;p&gt;进入绑定流程，绑定后可正常发言&lt;/p&gt;</v>
+        <v>进入绑定流程，绑定后可正常发言</v>
       </c>
     </row>
   </sheetData>
